--- a/기획 데이터.xlsx
+++ b/기획 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EA74C8-1032-4A22-8944-7CFABAE3139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340FE1C2-B1D9-418C-B708-87A28E8B15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="4" activeTab="7" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
+    <workbookView xWindow="38780" yWindow="380" windowWidth="28800" windowHeight="15500" activeTab="9" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,22 @@
     <sheet name="tide" sheetId="19" r:id="rId7"/>
     <sheet name="fish_price_auction" sheetId="20" r:id="rId8"/>
     <sheet name="item_map" sheetId="24" r:id="rId9"/>
-    <sheet name="item" sheetId="3" r:id="rId10"/>
-    <sheet name="item_category" sheetId="4" r:id="rId11"/>
-    <sheet name="payment_method" sheetId="21" r:id="rId12"/>
-    <sheet name="fishing_rod" sheetId="5" r:id="rId13"/>
-    <sheet name="fishing_rod_grade" sheetId="11" r:id="rId14"/>
-    <sheet name="fishing_rod_type" sheetId="14" r:id="rId15"/>
-    <sheet name="fishing_line" sheetId="6" r:id="rId16"/>
-    <sheet name="reel" sheetId="8" r:id="rId17"/>
-    <sheet name="reel_grade" sheetId="22" r:id="rId18"/>
-    <sheet name="fishing_bait" sheetId="9" r:id="rId19"/>
-    <sheet name="fishing_bait_grade" sheetId="10" r:id="rId20"/>
-    <sheet name="fishing_hook" sheetId="7" r:id="rId21"/>
-    <sheet name="upgrade_item" sheetId="12" r:id="rId22"/>
-    <sheet name="boat" sheetId="13" r:id="rId23"/>
-    <sheet name="fishing_weight" sheetId="23" r:id="rId24"/>
+    <sheet name="experience_level_up" sheetId="25" r:id="rId10"/>
+    <sheet name="item" sheetId="3" r:id="rId11"/>
+    <sheet name="item_category" sheetId="4" r:id="rId12"/>
+    <sheet name="payment_method" sheetId="21" r:id="rId13"/>
+    <sheet name="fishing_rod" sheetId="5" r:id="rId14"/>
+    <sheet name="fishing_rod_grade" sheetId="11" r:id="rId15"/>
+    <sheet name="fishing_rod_type" sheetId="14" r:id="rId16"/>
+    <sheet name="fishing_line" sheetId="6" r:id="rId17"/>
+    <sheet name="reel" sheetId="8" r:id="rId18"/>
+    <sheet name="reel_grade" sheetId="22" r:id="rId19"/>
+    <sheet name="fishing_bait" sheetId="9" r:id="rId20"/>
+    <sheet name="fishing_bait_grade" sheetId="10" r:id="rId21"/>
+    <sheet name="fishing_hook" sheetId="7" r:id="rId22"/>
+    <sheet name="upgrade_item" sheetId="12" r:id="rId23"/>
+    <sheet name="boat" sheetId="13" r:id="rId24"/>
+    <sheet name="fishing_weight" sheetId="23" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payment_method_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,18 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 낚싯대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 낚싯대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고급 낚싯대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시바늘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,6 +564,22 @@
   </si>
   <si>
     <t>피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_category_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,11 +1065,67 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A75FEC-BEF7-40AE-B5BB-F9E93857C2F6}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F7663B-46BD-4450-8D54-5EFB35034D89}">
-  <dimension ref="A13:E16"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1080,72 +1137,74 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>300</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>500</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>5000</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1154,12 +1213,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B498F6-687E-49D4-A3EA-2B82F0F365A2}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1197,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1221,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1229,7 +1288,15 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F6A1B-0589-4A7E-B4C9-97A95C5C3687}">
   <dimension ref="A37:B40"/>
   <sheetViews>
@@ -1254,10 +1321,10 @@
   <sheetData>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -1265,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -1273,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -1281,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7089EB-7911-4C1F-869F-6A85626E871B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1323,16 +1390,16 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1419,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B44FB7-E7D7-4214-8B97-55D79A4B7FA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1485,7 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CC49F8-C93D-4D0B-84FE-F3A44C319585}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1537,12 +1604,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB0D48-EEEB-44EE-B149-AACDFA3995BA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1563,16 +1630,16 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1580,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -1600,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -1620,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -1641,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719928E-8CB8-460C-B78A-DE6B715C2E08}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1666,10 +1733,10 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -1680,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1697,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1715,7 +1782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468237A6-3B7B-40BF-B923-1167CCDA5B9A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1732,13 +1799,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1772,71 +1839,6 @@
       </c>
       <c r="C4">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36952E1C-BD0B-42FC-98A1-CD7C875EBDF3}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.08203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1907,6 +1909,71 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36952E1C-BD0B-42FC-98A1-CD7C875EBDF3}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3D9CE-51BD-48BE-81EC-CF5CB8219CB4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1929,7 +1996,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1972,7 +2039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF1766B-BD6D-4B5D-B235-2B9EE4D19536}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1997,10 +2064,10 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2008,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -2022,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -2037,7 +2104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7C556-DC31-48A5-BC14-2962A22905AD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2054,13 +2121,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2068,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2079,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2091,7 +2158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206BD4B5-429F-491C-9949-7A1CC09AD801}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2103,13 +2170,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2151,7 +2218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E09B61-7D81-45C6-9C73-AD6E0402A95D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2163,13 +2230,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2177,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2188,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -2199,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -2369,15 +2436,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA45CAA5-8992-453A-BA38-294939DA6589}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2393,8 +2460,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2410,8 +2480,11 @@
       <c r="E2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2427,8 +2500,11 @@
       <c r="E3">
         <v>30000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2444,8 +2520,11 @@
       <c r="E4">
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2460,6 +2539,9 @@
       </c>
       <c r="E5">
         <v>130000</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +3094,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3433,7 +3515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185A0A93-081B-4EDC-AF32-A25187322DD3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -3503,44 +3585,56 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8112E5B1-55BF-4EE1-97CB-DDEE47B68AE4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/기획 데이터.xlsx
+++ b/기획 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340FE1C2-B1D9-418C-B708-87A28E8B15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A48DCE2-50ED-44B2-94F9-2EA4DAB38B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38780" yWindow="380" windowWidth="28800" windowHeight="15500" activeTab="9" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
+    <workbookView xWindow="6340" yWindow="3280" windowWidth="28800" windowHeight="15500" firstSheet="10" activeTab="12" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,21 @@
     <sheet name="item_map" sheetId="24" r:id="rId9"/>
     <sheet name="experience_level_up" sheetId="25" r:id="rId10"/>
     <sheet name="item" sheetId="3" r:id="rId11"/>
-    <sheet name="item_category" sheetId="4" r:id="rId12"/>
-    <sheet name="payment_method" sheetId="21" r:id="rId13"/>
-    <sheet name="fishing_rod" sheetId="5" r:id="rId14"/>
-    <sheet name="fishing_rod_grade" sheetId="11" r:id="rId15"/>
-    <sheet name="fishing_rod_type" sheetId="14" r:id="rId16"/>
-    <sheet name="fishing_line" sheetId="6" r:id="rId17"/>
-    <sheet name="reel" sheetId="8" r:id="rId18"/>
-    <sheet name="reel_grade" sheetId="22" r:id="rId19"/>
-    <sheet name="fishing_bait" sheetId="9" r:id="rId20"/>
-    <sheet name="fishing_bait_grade" sheetId="10" r:id="rId21"/>
-    <sheet name="fishing_hook" sheetId="7" r:id="rId22"/>
-    <sheet name="upgrade_item" sheetId="12" r:id="rId23"/>
-    <sheet name="boat" sheetId="13" r:id="rId24"/>
-    <sheet name="fishing_weight" sheetId="23" r:id="rId25"/>
+    <sheet name="preparation_category" sheetId="4" r:id="rId12"/>
+    <sheet name="preparation_item" sheetId="26" r:id="rId13"/>
+    <sheet name="payment_method" sheetId="21" r:id="rId14"/>
+    <sheet name="fishing_rod" sheetId="5" r:id="rId15"/>
+    <sheet name="fishing_rod_grade" sheetId="11" r:id="rId16"/>
+    <sheet name="fishing_rod_type" sheetId="14" r:id="rId17"/>
+    <sheet name="fishing_line" sheetId="6" r:id="rId18"/>
+    <sheet name="reel" sheetId="8" r:id="rId19"/>
+    <sheet name="reel_grade" sheetId="22" r:id="rId20"/>
+    <sheet name="fishing_bait" sheetId="9" r:id="rId21"/>
+    <sheet name="fishing_bait_grade" sheetId="10" r:id="rId22"/>
+    <sheet name="fishing_hook" sheetId="7" r:id="rId23"/>
+    <sheet name="upgrade_item" sheetId="12" r:id="rId24"/>
+    <sheet name="boat" sheetId="13" r:id="rId25"/>
+    <sheet name="fishing_weight" sheetId="23" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,14 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_category_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_rod_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시바늘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,7 +568,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_category_id</t>
+    <t>preparation_category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_category_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,19 +988,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1028,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1045,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2500</v>
@@ -1068,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A75FEC-BEF7-40AE-B5BB-F9E93857C2F6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -1076,10 +1073,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1122,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F7663B-46BD-4450-8D54-5EFB35034D89}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1137,21 +1134,18 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1161,11 +1155,8 @@
       <c r="C2">
         <v>300</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1175,11 +1166,8 @@
       <c r="C3">
         <v>500</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1189,11 +1177,8 @@
       <c r="C4">
         <v>5000</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1202,9 +1187,6 @@
       </c>
       <c r="C5">
         <v>300</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1218,21 +1200,21 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="29.4140625" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1240,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1248,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1256,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1264,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -1272,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1280,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1288,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1296,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1306,6 +1288,38 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04B5E40-812D-4297-A4F0-E3702BA0D434}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="48.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F6A1B-0589-4A7E-B4C9-97A95C5C3687}">
   <dimension ref="A37:B40"/>
   <sheetViews>
@@ -1321,10 +1335,10 @@
   <sheetData>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -1332,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -1340,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -1348,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7089EB-7911-4C1F-869F-6A85626E871B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1378,28 +1392,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1407,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1433,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1459,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1486,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B44FB7-E7D7-4214-8B97-55D79A4B7FA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1504,13 +1518,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1518,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1529,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1540,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1552,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CC49F8-C93D-4D0B-84FE-F3A44C319585}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1568,10 +1582,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1579,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1587,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1595,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB0D48-EEEB-44EE-B149-AACDFA3995BA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1624,22 +1638,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1647,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -1667,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -1687,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -1708,7 +1722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719928E-8CB8-460C-B78A-DE6B715C2E08}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1727,19 +1741,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1747,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1764,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1774,71 +1788,6 @@
       </c>
       <c r="E3">
         <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468237A6-3B7B-40BF-B923-1167CCDA5B9A}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1859,13 +1808,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1873,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1884,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -1895,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -1909,6 +1858,71 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468237A6-3B7B-40BF-B923-1167CCDA5B9A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36952E1C-BD0B-42FC-98A1-CD7C875EBDF3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1925,13 +1939,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1939,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1950,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1961,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1973,12 +1987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3D9CE-51BD-48BE-81EC-CF5CB8219CB4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1990,13 +2004,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2004,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2015,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2026,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -2039,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF1766B-BD6D-4B5D-B235-2B9EE4D19536}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2058,16 +2072,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2075,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -2089,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -2104,7 +2118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7C556-DC31-48A5-BC14-2962A22905AD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2121,13 +2135,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2135,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2146,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2158,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206BD4B5-429F-491C-9949-7A1CC09AD801}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2170,13 +2184,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2218,7 +2232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E09B61-7D81-45C6-9C73-AD6E0402A95D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2230,13 +2244,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2244,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2255,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -2266,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -2300,10 +2314,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -2318,10 +2332,10 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2355,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2381,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -2407,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -2446,10 +2460,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -2461,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2568,19 +2582,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3013,10 +3027,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -3024,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -3032,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3040,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -3048,7 +3062,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -3056,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -3064,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3072,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -3080,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3101,16 +3115,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3523,16 +3537,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3585,56 +3599,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8112E5B1-55BF-4EE1-97CB-DDEE47B68AE4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/기획 데이터.xlsx
+++ b/기획 데이터.xlsx
@@ -8,37 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A48DCE2-50ED-44B2-94F9-2EA4DAB38B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA322095-01C0-45F7-871B-8756775A9CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="3280" windowWidth="28800" windowHeight="15500" firstSheet="10" activeTab="12" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="9" activeTab="17" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
     <sheet name="fish_grade" sheetId="15" r:id="rId2"/>
     <sheet name="map" sheetId="2" r:id="rId3"/>
     <sheet name="fish_map" sheetId="16" r:id="rId4"/>
-    <sheet name="weather" sheetId="17" r:id="rId5"/>
-    <sheet name="wind_direction" sheetId="18" r:id="rId6"/>
-    <sheet name="tide" sheetId="19" r:id="rId7"/>
-    <sheet name="fish_price_auction" sheetId="20" r:id="rId8"/>
-    <sheet name="item_map" sheetId="24" r:id="rId9"/>
-    <sheet name="experience_level_up" sheetId="25" r:id="rId10"/>
-    <sheet name="item" sheetId="3" r:id="rId11"/>
-    <sheet name="preparation_category" sheetId="4" r:id="rId12"/>
-    <sheet name="preparation_item" sheetId="26" r:id="rId13"/>
-    <sheet name="payment_method" sheetId="21" r:id="rId14"/>
-    <sheet name="fishing_rod" sheetId="5" r:id="rId15"/>
-    <sheet name="fishing_rod_grade" sheetId="11" r:id="rId16"/>
-    <sheet name="fishing_rod_type" sheetId="14" r:id="rId17"/>
-    <sheet name="fishing_line" sheetId="6" r:id="rId18"/>
-    <sheet name="reel" sheetId="8" r:id="rId19"/>
-    <sheet name="reel_grade" sheetId="22" r:id="rId20"/>
-    <sheet name="fishing_bait" sheetId="9" r:id="rId21"/>
-    <sheet name="fishing_bait_grade" sheetId="10" r:id="rId22"/>
-    <sheet name="fishing_hook" sheetId="7" r:id="rId23"/>
-    <sheet name="upgrade_item" sheetId="12" r:id="rId24"/>
-    <sheet name="boat" sheetId="13" r:id="rId25"/>
-    <sheet name="fishing_weight" sheetId="23" r:id="rId26"/>
+    <sheet name="wind_direction" sheetId="18" r:id="rId5"/>
+    <sheet name="tide" sheetId="19" r:id="rId6"/>
+    <sheet name="item_map" sheetId="24" r:id="rId7"/>
+    <sheet name="user_level" sheetId="27" r:id="rId8"/>
+    <sheet name="nation" sheetId="28" r:id="rId9"/>
+    <sheet name="language" sheetId="29" r:id="rId10"/>
+    <sheet name="boat_level" sheetId="30" r:id="rId11"/>
+    <sheet name="asset" sheetId="31" r:id="rId12"/>
+    <sheet name="store" sheetId="32" r:id="rId13"/>
+    <sheet name="preparation_type" sheetId="4" r:id="rId14"/>
+    <sheet name="item" sheetId="3" r:id="rId15"/>
+    <sheet name="rod" sheetId="5" r:id="rId16"/>
+    <sheet name="rod_grade" sheetId="11" r:id="rId17"/>
+    <sheet name="rod_level" sheetId="34" r:id="rId18"/>
+    <sheet name="rod_type" sheetId="14" r:id="rId19"/>
+    <sheet name="line" sheetId="6" r:id="rId20"/>
+    <sheet name="line_level" sheetId="35" r:id="rId21"/>
+    <sheet name="reel" sheetId="8" r:id="rId22"/>
+    <sheet name="reel_grade" sheetId="22" r:id="rId23"/>
+    <sheet name="reel_level" sheetId="38" r:id="rId24"/>
+    <sheet name="bait" sheetId="9" r:id="rId25"/>
+    <sheet name="bait_grade" sheetId="10" r:id="rId26"/>
+    <sheet name="hook" sheetId="7" r:id="rId27"/>
+    <sheet name="piece" sheetId="12" r:id="rId28"/>
+    <sheet name="sinker" sheetId="23" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,18 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_rod_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_rod_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_rod_max_upgrade_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,18 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_line_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_line_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_line_max_upgrade_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reel_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,22 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_hook_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_hook_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학꽁치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,30 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시줄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_grade_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_grade_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>치즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,18 +144,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_rod_grade_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_rod_durability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_rod_grade_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯대1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_rod_type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_rod_type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연질대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,26 +228,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weather_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wind_direction_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wind_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wind_direction_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,34 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>payment_method_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시바늘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_method_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_method_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hardness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hooking_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>success_probability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>얕은 바다용 1호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,18 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>upgrade_item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_satisfying_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구리 조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,18 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_weight_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_weight_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작은 추</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,19 +411,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드 부품 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preparation_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preparation_category_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>preparation_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國人</t>
+  </si>
+  <si>
+    <t>asset_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_grade_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_grade_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_max_upgrade_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_for_next_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_max_upgrade_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reel_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bait_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bait_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bait_grade_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bait_grade_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,90 +1014,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5E8309-EAA1-4BE7-A059-B4E30D973314}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="24.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" customWidth="1"/>
-    <col min="7" max="7" width="31.58203125" customWidth="1"/>
-    <col min="8" max="8" width="24.08203125" customWidth="1"/>
+    <col min="1" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="24.58203125" customWidth="1"/>
+    <col min="7" max="7" width="14.08203125" customWidth="1"/>
+    <col min="8" max="8" width="31.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.08203125" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1800</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>30000</v>
+      </c>
+      <c r="I2">
+        <v>20000</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>32000</v>
-      </c>
-      <c r="D2">
-        <v>28000</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>40000</v>
+      </c>
+      <c r="I3">
+        <v>30000</v>
+      </c>
+      <c r="J3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>2500</v>
       </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>40000</v>
+      </c>
+      <c r="I4">
+        <v>100000</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1062,53 +1169,53 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A75FEC-BEF7-40AE-B5BB-F9E93857C2F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0B6EB-6C79-4970-B01F-29CE4A61EA46}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>300</v>
+      <c r="B2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>600</v>
+      <c r="B3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>900</v>
+      <c r="B4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1200</v>
+      <c r="B5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1118,11 +1225,299 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C85F6-F914-4DB2-BDA6-55E7CCD2C6F2}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1600</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380415F9-4197-43D0-B5D9-5106315D1AD8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32810663-0F74-41E4-A2C7-39D93B7357EB}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B498F6-687E-49D4-A3EA-2B82F0F365A2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="29.4140625" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F7663B-46BD-4450-8D54-5EFB35034D89}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1136,13 +1531,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1153,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1164,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1175,18 +1570,18 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1195,188 +1590,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B498F6-687E-49D4-A3EA-2B82F0F365A2}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="29.4140625" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04B5E40-812D-4297-A4F0-E3702BA0D434}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="48.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F6A1B-0589-4A7E-B4C9-97A95C5C3687}">
-  <dimension ref="A37:B40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="20.08203125" customWidth="1"/>
-    <col min="2" max="2" width="29.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7089EB-7911-4C1F-869F-6A85626E871B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1392,28 +1611,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1421,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1447,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1473,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1500,12 +1719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B44FB7-E7D7-4214-8B97-55D79A4B7FA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1518,13 +1737,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1532,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1543,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1554,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1566,12 +1785,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD7D746-9C27-4CBB-8E85-6A6322F1BBD7}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.58203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>550</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>850</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>700</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>900</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1100</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1300</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1500</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1700</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CC49F8-C93D-4D0B-84FE-F3A44C319585}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1582,10 +2099,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1593,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1601,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1609,185 +2126,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB0D48-EEEB-44EE-B149-AACDFA3995BA}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.58203125" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4">
-        <v>1500</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719928E-8CB8-460C-B78A-DE6B715C2E08}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="20.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>400</v>
-      </c>
-      <c r="E3">
-        <v>0.9</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1805,16 +2144,21 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1822,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1833,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -1844,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -1858,11 +2202,367 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB0D48-EEEB-44EE-B149-AACDFA3995BA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.58203125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD41FA41-F314-4F1D-8395-102DF5D4F4EF}">
+  <dimension ref="A16:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="22.4140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719928E-8CB8-460C-B78A-DE6B715C2E08}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468237A6-3B7B-40BF-B923-1167CCDA5B9A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1874,13 +2574,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1888,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1899,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1910,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1922,7 +2622,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58DD148-F662-4F25-94EC-9F068CB30221}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>550</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>850</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>700</v>
+      </c>
+      <c r="D14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>900</v>
+      </c>
+      <c r="D15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1100</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1300</v>
+      </c>
+      <c r="D17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1500</v>
+      </c>
+      <c r="D18">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1700</v>
+      </c>
+      <c r="D19">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36952E1C-BD0B-42FC-98A1-CD7C875EBDF3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1939,13 +2927,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1953,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1964,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1975,7 +2963,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1987,12 +2975,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3D9CE-51BD-48BE-81EC-CF5CB8219CB4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2004,13 +2992,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2018,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2029,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2040,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -2053,12 +3041,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF1766B-BD6D-4B5D-B235-2B9EE4D19536}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2072,16 +3060,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2089,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -2103,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -2118,12 +3106,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7C556-DC31-48A5-BC14-2962A22905AD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2135,13 +3123,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2149,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2160,10 +3148,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2172,85 +3160,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206BD4B5-429F-491C-9949-7A1CC09AD801}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>500</v>
-      </c>
-      <c r="C4">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E09B61-7D81-45C6-9C73-AD6E0402A95D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23.58203125" customWidth="1"/>
+    <col min="3" max="3" width="24.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2258,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2269,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -2280,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -2297,7 +3230,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2314,10 +3247,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -2332,10 +3265,10 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2352,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2369,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2378,7 +3311,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -2395,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -2404,7 +3337,7 @@
         <v>500</v>
       </c>
       <c r="E4">
-        <v>40000</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <v>35</v>
@@ -2421,16 +3354,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E5">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -2453,17 +3386,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C2" sqref="C2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -2475,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2565,453 +3498,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6300E83-71AC-4FB0-956D-A494BC344F14}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="20.58203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3905F7ED-FE72-442B-B646-CB84AC70A313}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -3027,10 +3513,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -3038,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -3046,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3054,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -3062,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -3070,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -3078,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3086,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -3094,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F28121-1760-4877-AF06-A1620F6DCBEC}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -3115,16 +3601,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3525,70 +4011,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185A0A93-081B-4EDC-AF32-A25187322DD3}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8112E5B1-55BF-4EE1-97CB-DDEE47B68AE4}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C722783-E91D-46B3-8934-755FBA9D97CD}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="C2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>900</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1200</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>18500</v>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -3598,50 +4143,57 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8112E5B1-55BF-4EE1-97CB-DDEE47B68AE4}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840E511D-C161-4F5F-8CC5-F3989AFA34DB}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>